--- a/_data/ADAUSDT_4h.xlsx
+++ b/_data/ADAUSDT_4h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1084"/>
+  <dimension ref="A1:F1117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22081,6 +22081,666 @@
         <v>4354024.5</v>
       </c>
     </row>
+    <row r="1085" spans="1:6">
+      <c r="A1085" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1085">
+        <v>0.3513</v>
+      </c>
+      <c r="C1085">
+        <v>0.3546</v>
+      </c>
+      <c r="D1085">
+        <v>0.3383</v>
+      </c>
+      <c r="E1085">
+        <v>0.34</v>
+      </c>
+      <c r="F1085">
+        <v>47841509.2</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6">
+      <c r="A1086" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1086">
+        <v>0.34</v>
+      </c>
+      <c r="C1086">
+        <v>0.3493</v>
+      </c>
+      <c r="D1086">
+        <v>0.3373</v>
+      </c>
+      <c r="E1086">
+        <v>0.3455</v>
+      </c>
+      <c r="F1086">
+        <v>16638411.6</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6">
+      <c r="A1087" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1087">
+        <v>0.3455</v>
+      </c>
+      <c r="C1087">
+        <v>0.3482</v>
+      </c>
+      <c r="D1087">
+        <v>0.3455</v>
+      </c>
+      <c r="E1087">
+        <v>0.3469</v>
+      </c>
+      <c r="F1087">
+        <v>4426300.1</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6">
+      <c r="A1088" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1088">
+        <v>0.3469</v>
+      </c>
+      <c r="C1088">
+        <v>0.3485</v>
+      </c>
+      <c r="D1088">
+        <v>0.3458</v>
+      </c>
+      <c r="E1088">
+        <v>0.3469</v>
+      </c>
+      <c r="F1088">
+        <v>1831291.6</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6">
+      <c r="A1089" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1089">
+        <v>0.3474</v>
+      </c>
+      <c r="C1089">
+        <v>0.3504</v>
+      </c>
+      <c r="D1089">
+        <v>0.3474</v>
+      </c>
+      <c r="E1089">
+        <v>0.3478</v>
+      </c>
+      <c r="F1089">
+        <v>5161715.8</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6">
+      <c r="A1090" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1090">
+        <v>0.3478</v>
+      </c>
+      <c r="C1090">
+        <v>0.3495</v>
+      </c>
+      <c r="D1090">
+        <v>0.3453</v>
+      </c>
+      <c r="E1090">
+        <v>0.3481</v>
+      </c>
+      <c r="F1090">
+        <v>4809648.4</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
+      <c r="A1091" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1091">
+        <v>0.3481</v>
+      </c>
+      <c r="C1091">
+        <v>0.3496</v>
+      </c>
+      <c r="D1091">
+        <v>0.3471</v>
+      </c>
+      <c r="E1091">
+        <v>0.3492</v>
+      </c>
+      <c r="F1091">
+        <v>4712130.7</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
+      <c r="A1092" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1092">
+        <v>0.3492</v>
+      </c>
+      <c r="C1092">
+        <v>0.3493</v>
+      </c>
+      <c r="D1092">
+        <v>0.345</v>
+      </c>
+      <c r="E1092">
+        <v>0.3468</v>
+      </c>
+      <c r="F1092">
+        <v>4751588.4</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6">
+      <c r="A1093" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1093">
+        <v>0.3467</v>
+      </c>
+      <c r="C1093">
+        <v>0.347</v>
+      </c>
+      <c r="D1093">
+        <v>0.3447</v>
+      </c>
+      <c r="E1093">
+        <v>0.345</v>
+      </c>
+      <c r="F1093">
+        <v>1160830.8</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6">
+      <c r="A1094" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1094">
+        <v>0.3451</v>
+      </c>
+      <c r="C1094">
+        <v>0.3458</v>
+      </c>
+      <c r="D1094">
+        <v>0.3394</v>
+      </c>
+      <c r="E1094">
+        <v>0.3448</v>
+      </c>
+      <c r="F1094">
+        <v>6403007.4</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6">
+      <c r="A1095" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1095">
+        <v>0.3449</v>
+      </c>
+      <c r="C1095">
+        <v>0.3449</v>
+      </c>
+      <c r="D1095">
+        <v>0.3393</v>
+      </c>
+      <c r="E1095">
+        <v>0.3446</v>
+      </c>
+      <c r="F1095">
+        <v>5978305.4</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6">
+      <c r="A1096" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1096">
+        <v>0.3446</v>
+      </c>
+      <c r="C1096">
+        <v>0.345</v>
+      </c>
+      <c r="D1096">
+        <v>0.3428</v>
+      </c>
+      <c r="E1096">
+        <v>0.3428</v>
+      </c>
+      <c r="F1096">
+        <v>1772825.1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6">
+      <c r="A1097" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1097">
+        <v>0.3431</v>
+      </c>
+      <c r="C1097">
+        <v>0.3436</v>
+      </c>
+      <c r="D1097">
+        <v>0.3351</v>
+      </c>
+      <c r="E1097">
+        <v>0.3403</v>
+      </c>
+      <c r="F1097">
+        <v>15760883.4</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6">
+      <c r="A1098" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1098">
+        <v>0.3403</v>
+      </c>
+      <c r="C1098">
+        <v>0.3422</v>
+      </c>
+      <c r="D1098">
+        <v>0.3341</v>
+      </c>
+      <c r="E1098">
+        <v>0.3397</v>
+      </c>
+      <c r="F1098">
+        <v>13694886.7</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1099">
+        <v>0.3397</v>
+      </c>
+      <c r="C1099">
+        <v>0.3421</v>
+      </c>
+      <c r="D1099">
+        <v>0.3267</v>
+      </c>
+      <c r="E1099">
+        <v>0.3311</v>
+      </c>
+      <c r="F1099">
+        <v>17389891</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1100">
+        <v>0.331</v>
+      </c>
+      <c r="C1100">
+        <v>0.3345</v>
+      </c>
+      <c r="D1100">
+        <v>0.3308</v>
+      </c>
+      <c r="E1100">
+        <v>0.3316</v>
+      </c>
+      <c r="F1100">
+        <v>6640945.6</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6">
+      <c r="A1101" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1101">
+        <v>0.3315</v>
+      </c>
+      <c r="C1101">
+        <v>0.3316</v>
+      </c>
+      <c r="D1101">
+        <v>0.325</v>
+      </c>
+      <c r="E1101">
+        <v>0.3259</v>
+      </c>
+      <c r="F1101">
+        <v>11315069.6</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1102">
+        <v>0.3259</v>
+      </c>
+      <c r="C1102">
+        <v>0.3364</v>
+      </c>
+      <c r="D1102">
+        <v>0.3253</v>
+      </c>
+      <c r="E1102">
+        <v>0.3346</v>
+      </c>
+      <c r="F1102">
+        <v>19529681.1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1103">
+        <v>0.3338</v>
+      </c>
+      <c r="C1103">
+        <v>0.3349</v>
+      </c>
+      <c r="D1103">
+        <v>0.3269</v>
+      </c>
+      <c r="E1103">
+        <v>0.3325</v>
+      </c>
+      <c r="F1103">
+        <v>15387478.4</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1104">
+        <v>0.3325</v>
+      </c>
+      <c r="C1104">
+        <v>0.3342</v>
+      </c>
+      <c r="D1104">
+        <v>0.3297</v>
+      </c>
+      <c r="E1104">
+        <v>0.3309</v>
+      </c>
+      <c r="F1104">
+        <v>9306857.800000001</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1105">
+        <v>0.3309</v>
+      </c>
+      <c r="C1105">
+        <v>0.3374</v>
+      </c>
+      <c r="D1105">
+        <v>0.3303</v>
+      </c>
+      <c r="E1105">
+        <v>0.3362</v>
+      </c>
+      <c r="F1105">
+        <v>8010292.1</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1106">
+        <v>0.3362</v>
+      </c>
+      <c r="C1106">
+        <v>0.3398</v>
+      </c>
+      <c r="D1106">
+        <v>0.3342</v>
+      </c>
+      <c r="E1106">
+        <v>0.3351</v>
+      </c>
+      <c r="F1106">
+        <v>10001431.3</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1107">
+        <v>0.3352</v>
+      </c>
+      <c r="C1107">
+        <v>0.3356</v>
+      </c>
+      <c r="D1107">
+        <v>0.3318</v>
+      </c>
+      <c r="E1107">
+        <v>0.3329</v>
+      </c>
+      <c r="F1107">
+        <v>6379042.4</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1108">
+        <v>0.3335</v>
+      </c>
+      <c r="C1108">
+        <v>0.3336</v>
+      </c>
+      <c r="D1108">
+        <v>0.3281</v>
+      </c>
+      <c r="E1108">
+        <v>0.3302</v>
+      </c>
+      <c r="F1108">
+        <v>10360581.5</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1109">
+        <v>0.3302</v>
+      </c>
+      <c r="C1109">
+        <v>0.332</v>
+      </c>
+      <c r="D1109">
+        <v>0.32</v>
+      </c>
+      <c r="E1109">
+        <v>0.3204</v>
+      </c>
+      <c r="F1109">
+        <v>26948259.2</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1110">
+        <v>0.3204</v>
+      </c>
+      <c r="C1110">
+        <v>0.3259</v>
+      </c>
+      <c r="D1110">
+        <v>0.3195</v>
+      </c>
+      <c r="E1110">
+        <v>0.3249</v>
+      </c>
+      <c r="F1110">
+        <v>9479136.9</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1111">
+        <v>0.3249</v>
+      </c>
+      <c r="C1111">
+        <v>0.3262</v>
+      </c>
+      <c r="D1111">
+        <v>0.3172</v>
+      </c>
+      <c r="E1111">
+        <v>0.3185</v>
+      </c>
+      <c r="F1111">
+        <v>11673959.8</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6">
+      <c r="A1112" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1112">
+        <v>0.3184</v>
+      </c>
+      <c r="C1112">
+        <v>0.3202</v>
+      </c>
+      <c r="D1112">
+        <v>0.305</v>
+      </c>
+      <c r="E1112">
+        <v>0.3157</v>
+      </c>
+      <c r="F1112">
+        <v>44782073.1</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6">
+      <c r="A1113" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1113">
+        <v>0.3157</v>
+      </c>
+      <c r="C1113">
+        <v>0.3222</v>
+      </c>
+      <c r="D1113">
+        <v>0.3124</v>
+      </c>
+      <c r="E1113">
+        <v>0.3212</v>
+      </c>
+      <c r="F1113">
+        <v>16564924.7</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6">
+      <c r="A1114" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1114">
+        <v>0.3212</v>
+      </c>
+      <c r="C1114">
+        <v>0.325</v>
+      </c>
+      <c r="D1114">
+        <v>0.315</v>
+      </c>
+      <c r="E1114">
+        <v>0.3175</v>
+      </c>
+      <c r="F1114">
+        <v>16756179.9</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6">
+      <c r="A1115" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1115">
+        <v>0.3176</v>
+      </c>
+      <c r="C1115">
+        <v>0.3262</v>
+      </c>
+      <c r="D1115">
+        <v>0.3154</v>
+      </c>
+      <c r="E1115">
+        <v>0.326</v>
+      </c>
+      <c r="F1115">
+        <v>17387851.2</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6">
+      <c r="A1116" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1116">
+        <v>0.3259</v>
+      </c>
+      <c r="C1116">
+        <v>0.3293</v>
+      </c>
+      <c r="D1116">
+        <v>0.321</v>
+      </c>
+      <c r="E1116">
+        <v>0.3223</v>
+      </c>
+      <c r="F1116">
+        <v>14170383.3</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6">
+      <c r="A1117" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1117">
+        <v>0.3231</v>
+      </c>
+      <c r="C1117">
+        <v>0.3234</v>
+      </c>
+      <c r="D1117">
+        <v>0.3219</v>
+      </c>
+      <c r="E1117">
+        <v>0.3223</v>
+      </c>
+      <c r="F1117">
+        <v>940070.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
